--- a/src/main/examples/slots_template.xlsx
+++ b/src/main/examples/slots_template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OneDriveCopy\OneDrive - Personal\TTK\Доработки\Расписание отпуска\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TTK\slots-backend\src\main\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39C1A9A4-E7B0-4405-874D-483BB14C0755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE437414-450B-4B6C-8480-15C3B8BD02B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="7">
   <si>
     <t>Время начала</t>
   </si>
@@ -34,13 +34,13 @@
     <t>Пункт налива</t>
   </si>
   <si>
-    <t>storeCode1</t>
+    <t>пн-1</t>
   </si>
   <si>
-    <t>loading_point_Code1</t>
+    <t>пн-2</t>
   </si>
   <si>
-    <t>loading_point_Code3</t>
+    <t>пн-3</t>
   </si>
 </sst>
 </file>
@@ -430,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -442,6 +442,7 @@
     <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -459,72 +460,702 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
+      <c r="A2">
+        <v>215</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" s="2">
-        <v>25569.604166666668</v>
+        <v>25569.354166666668</v>
       </c>
       <c r="D2" s="2">
+        <v>25569.395833333332</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>215</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2">
+        <v>25569.395833333332</v>
+      </c>
+      <c r="D3" s="2">
+        <v>25569.4375</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>215</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2">
+        <v>25569.4375</v>
+      </c>
+      <c r="D4" s="2">
+        <v>25569.479166666701</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>215</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2">
+        <v>25569.479166666701</v>
+      </c>
+      <c r="D5" s="2">
+        <v>25569.520833333299</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>215</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2">
+        <v>25569.520833333299</v>
+      </c>
+      <c r="D6" s="2">
+        <v>25569.5625</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>215</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2">
+        <v>25569.5625</v>
+      </c>
+      <c r="D7" s="2">
+        <v>25569.604166666701</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>215</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2">
+        <v>25569.604166666701</v>
+      </c>
+      <c r="D8" s="2">
+        <v>25569.645833333299</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>215</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="2">
+        <v>25569.645833333299</v>
+      </c>
+      <c r="D9" s="2">
+        <v>25569.6875</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>215</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="2">
+        <v>25569.6875</v>
+      </c>
+      <c r="D10" s="2">
+        <v>25569.729166666701</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>215</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="2">
+        <v>25569.729166666599</v>
+      </c>
+      <c r="D11" s="2">
+        <v>25569.770833333299</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>215</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="2">
+        <v>25569.770833333299</v>
+      </c>
+      <c r="D12" s="2">
+        <v>25569.8125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>215</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="2">
+        <v>25569.8125</v>
+      </c>
+      <c r="D13" s="2">
+        <v>25569.854166666701</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>215</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="2">
+        <v>25569.854166666599</v>
+      </c>
+      <c r="D14" s="2">
+        <v>25569.895833333299</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>215</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="2">
+        <v>25569.895833333299</v>
+      </c>
+      <c r="D15" s="2">
+        <v>25569.9375</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>215</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="2">
+        <v>25569.9375</v>
+      </c>
+      <c r="D16" s="2">
+        <v>25569.979166666701</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>215</v>
+      </c>
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="2">
+        <v>25569.979166666599</v>
+      </c>
+      <c r="D17" s="2">
+        <v>25570.020833333401</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>215</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="2">
+        <v>25569.354166666668</v>
+      </c>
+      <c r="D18" s="2">
+        <v>25569.395833333332</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>215</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="2">
+        <v>25569.395833333332</v>
+      </c>
+      <c r="D19" s="2">
+        <v>25569.4375</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>215</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="2">
+        <v>25569.4375</v>
+      </c>
+      <c r="D20" s="2">
+        <v>25569.479166666701</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>215</v>
+      </c>
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="2">
+        <v>25569.479166666701</v>
+      </c>
+      <c r="D21" s="2">
+        <v>25569.520833333299</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>215</v>
+      </c>
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="2">
+        <v>25569.520833333299</v>
+      </c>
+      <c r="D22" s="2">
+        <v>25569.5625</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>215</v>
+      </c>
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="2">
+        <v>25569.5625</v>
+      </c>
+      <c r="D23" s="2">
+        <v>25569.604166666701</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>215</v>
+      </c>
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="2">
+        <v>25569.604166666701</v>
+      </c>
+      <c r="D24" s="2">
+        <v>25569.645833333299</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>215</v>
+      </c>
+      <c r="B25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="2">
+        <v>25569.645833333299</v>
+      </c>
+      <c r="D25" s="2">
+        <v>25569.6875</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>215</v>
+      </c>
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="2">
+        <v>25569.6875</v>
+      </c>
+      <c r="D26" s="2">
+        <v>25569.729166666701</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>215</v>
+      </c>
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="2">
+        <v>25569.729166666599</v>
+      </c>
+      <c r="D27" s="2">
+        <v>25569.770833333299</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>215</v>
+      </c>
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="2">
+        <v>25569.770833333299</v>
+      </c>
+      <c r="D28" s="2">
+        <v>25569.8125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>215</v>
+      </c>
+      <c r="B29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="2">
+        <v>25569.8125</v>
+      </c>
+      <c r="D29" s="2">
+        <v>25569.854166666701</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>215</v>
+      </c>
+      <c r="B30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="2">
+        <v>25569.854166666599</v>
+      </c>
+      <c r="D30" s="2">
+        <v>25569.895833333299</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>215</v>
+      </c>
+      <c r="B31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="2">
+        <v>25569.895833333299</v>
+      </c>
+      <c r="D31" s="2">
+        <v>25569.9375</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>215</v>
+      </c>
+      <c r="B32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="2">
+        <v>25569.9375</v>
+      </c>
+      <c r="D32" s="2">
+        <v>25569.979166666701</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>215</v>
+      </c>
+      <c r="B33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="2">
+        <v>25569.979166666599</v>
+      </c>
+      <c r="D33" s="2">
+        <v>25570.020833333401</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>263</v>
+      </c>
+      <c r="B34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="2">
         <v>25569.645833333332</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2">
-        <v>25569.604166666668</v>
-      </c>
-      <c r="D3" s="2">
+      <c r="D34" s="2">
+        <v>25569.6875</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>215</v>
+      </c>
+      <c r="B35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="2">
+        <v>25569.354166666668</v>
+      </c>
+      <c r="D35" s="2">
+        <v>25569.395833333332</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>215</v>
+      </c>
+      <c r="B36" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="2">
+        <v>25569.395833333332</v>
+      </c>
+      <c r="D36" s="2">
+        <v>25569.4375</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>215</v>
+      </c>
+      <c r="B37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="2">
+        <v>25569.4375</v>
+      </c>
+      <c r="D37" s="2">
+        <v>25569.479166666701</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>215</v>
+      </c>
+      <c r="B38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="2">
+        <v>25569.479166666701</v>
+      </c>
+      <c r="D38" s="2">
+        <v>25569.520833333299</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>215</v>
+      </c>
+      <c r="B39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="2">
+        <v>25569.520833333299</v>
+      </c>
+      <c r="D39" s="2">
+        <v>25569.5625</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>215</v>
+      </c>
+      <c r="B40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="2">
+        <v>25569.5625</v>
+      </c>
+      <c r="D40" s="2">
+        <v>25569.604166666701</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>215</v>
+      </c>
+      <c r="B41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="2">
+        <v>25569.604166666701</v>
+      </c>
+      <c r="D41" s="2">
+        <v>25569.645833333299</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>215</v>
+      </c>
+      <c r="B42" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="2">
+        <v>25569.645833333299</v>
+      </c>
+      <c r="D42" s="2">
+        <v>25569.6875</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>215</v>
+      </c>
+      <c r="B43" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="2">
+        <v>25569.6875</v>
+      </c>
+      <c r="D43" s="2">
+        <v>25569.729166666701</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>215</v>
+      </c>
+      <c r="B44" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="2">
+        <v>25569.729166666599</v>
+      </c>
+      <c r="D44" s="2">
+        <v>25569.770833333299</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>215</v>
+      </c>
+      <c r="B45" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="2">
+        <v>25569.770833333299</v>
+      </c>
+      <c r="D45" s="2">
+        <v>25569.8125</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>215</v>
+      </c>
+      <c r="B46" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="2">
+        <v>25569.8125</v>
+      </c>
+      <c r="D46" s="2">
+        <v>25569.854166666701</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>215</v>
+      </c>
+      <c r="B47" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="2">
+        <v>25569.854166666599</v>
+      </c>
+      <c r="D47" s="2">
+        <v>25569.895833333299</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>215</v>
+      </c>
+      <c r="B48" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="2">
+        <v>25569.895833333299</v>
+      </c>
+      <c r="D48" s="2">
+        <v>25569.9375</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>215</v>
+      </c>
+      <c r="B49" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" s="2">
+        <v>25569.9375</v>
+      </c>
+      <c r="D49" s="2">
+        <v>25569.979166666701</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>215</v>
+      </c>
+      <c r="B50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" s="2">
+        <v>25569.979166666599</v>
+      </c>
+      <c r="D50" s="2">
+        <v>25570.020833333401</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>263</v>
+      </c>
+      <c r="B51" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="2">
         <v>25569.645833333332</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="2">
-        <v>25569.645833333332</v>
-      </c>
-      <c r="D4" s="2">
-        <v>25569.6875</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="2">
-        <v>25569.645833333332</v>
-      </c>
-      <c r="D5" s="2">
-        <v>25569.729166666668</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="2">
-        <v>25569.645833333332</v>
-      </c>
-      <c r="D6" s="2">
+      <c r="D51" s="2">
         <v>25569.6875</v>
       </c>
     </row>
